--- a/src/Muscle.xlsx
+++ b/src/Muscle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29303"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41592714D82ABA18/Tài liệu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\THIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C70CF1B-37C1-4D2A-BE6A-1BD684725B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15624879-69E6-4571-AC82-BB78A88417E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4044" yWindow="1296" windowWidth="17280" windowHeight="8880" xr2:uid="{E170D5C5-911D-4D1B-8E34-A3A379DEC0AC}"/>
+    <workbookView xWindow="4044" yWindow="1296" windowWidth="17280" windowHeight="8880" xr2:uid="{E170D5C5-911D-4D1B-8E34-A3A379DEC0AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>CreatedDate</t>
+  </si>
+  <si>
+    <t>LastUpdated</t>
+  </si>
   <si>
     <t>209258a5-0939-4b2d-8adc-7cf8edfd38cf</t>
   </si>
@@ -174,11 +186,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -510,152 +525,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631ADAAD-E010-4215-A729-DC0B913F7C01}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="29.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="29.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="29.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
